--- a/Template/Employee Data/All Employees Master Data 23-05-25.xlsx
+++ b/Template/Employee Data/All Employees Master Data 23-05-25.xlsx
@@ -8,17 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Amlan\Ticketing System\Template\Employee Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAEEC584-11CB-4DD5-A2E0-0F38B9C29AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093AF2C9-BFF4-49FD-AEAB-4ACE73B3485C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All Employees Master Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All Employees Master Data'!$A$1:$P$619</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$B$57</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9330" uniqueCount="3839">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9251" uniqueCount="3787">
   <si>
     <t>Si No</t>
   </si>
@@ -11433,168 +11431,12 @@
   <si>
     <t>Basavaraj S B</t>
   </si>
-  <si>
-    <t>BCI DF Contribution</t>
-  </si>
-  <si>
-    <t>BCI Project- Karnataka</t>
-  </si>
-  <si>
-    <t>BCI Project- Telengana</t>
-  </si>
-  <si>
-    <t>DF-CSR</t>
-  </si>
-  <si>
-    <t>DF-DD</t>
-  </si>
-  <si>
-    <t>DF-HR</t>
-  </si>
-  <si>
-    <t>DF-IT</t>
-  </si>
-  <si>
-    <t>DF-Media</t>
-  </si>
-  <si>
-    <t>DF-PMU</t>
-  </si>
-  <si>
-    <t>DF Support Functions</t>
-  </si>
-  <si>
-    <t>DF-Technology</t>
-  </si>
-  <si>
-    <t>DF-Web</t>
-  </si>
-  <si>
-    <t>Farm Pond- Hubballi</t>
-  </si>
-  <si>
-    <t>Farmpond Maharastra</t>
-  </si>
-  <si>
-    <t>Farmpond Rajastan</t>
-  </si>
-  <si>
-    <t>Farm Pond-Telengana</t>
-  </si>
-  <si>
-    <t>Fidelity - Corpus Fund</t>
-  </si>
-  <si>
-    <t>FP Season 2</t>
-  </si>
-  <si>
-    <t>FP Season 3</t>
-  </si>
-  <si>
-    <t>Give2Asia</t>
-  </si>
-  <si>
-    <t>Give2Asia_Corpus Fund</t>
-  </si>
-  <si>
-    <t>Hubli Sandbox</t>
-  </si>
-  <si>
-    <t>IDH Covid 19 2nd Phase</t>
-  </si>
-  <si>
-    <t>Impact Through Partnerships</t>
-  </si>
-  <si>
-    <t>Kakatiya Sandbox</t>
-  </si>
-  <si>
-    <t>KDEM (BLR)</t>
-  </si>
-  <si>
-    <t>KS-CSR</t>
-  </si>
-  <si>
-    <t>KS DD</t>
-  </si>
-  <si>
-    <t>KS-Finance</t>
-  </si>
-  <si>
-    <t>KS-HR</t>
-  </si>
-  <si>
-    <t>KS-HUB Construction</t>
-  </si>
-  <si>
-    <t>KS-Media</t>
-  </si>
-  <si>
-    <t>KS-Skilling</t>
-  </si>
-  <si>
-    <t>KS-Support Functions</t>
-  </si>
-  <si>
-    <t>LTI Mind Tree</t>
-  </si>
-  <si>
-    <t>MBA Program</t>
-  </si>
-  <si>
-    <t>Mini  MBA</t>
-  </si>
-  <si>
-    <t>Phanindra Sama Loan</t>
-  </si>
-  <si>
-    <t>Residential Skilling</t>
-  </si>
-  <si>
-    <t>Seed Panchayat (FPO- KA)</t>
-  </si>
-  <si>
-    <t>Seed Panchayat (FPO TS)</t>
-  </si>
-  <si>
-    <t>Starts Up Program</t>
-  </si>
-  <si>
-    <t>MFE Loan</t>
-  </si>
-  <si>
-    <t>S R Pakala</t>
-  </si>
-  <si>
-    <t>Agri Initiatives-DF</t>
-  </si>
-  <si>
-    <t>Microsoft Project</t>
-  </si>
-  <si>
-    <t>LDC-Jagruti Project</t>
-  </si>
-  <si>
-    <t>Living Icome Project</t>
-  </si>
-  <si>
-    <t>Unlock Project</t>
-  </si>
-  <si>
-    <t>Srikant Pakala Loan</t>
-  </si>
-  <si>
-    <t>Cost Center 1</t>
-  </si>
-  <si>
-    <t>Cost Center 2</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -11634,14 +11476,6 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -11687,7 +11521,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -11740,18 +11574,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -11971,8 +11796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y996"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="A604" workbookViewId="0">
+      <selection activeCell="H623" sqref="H623"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11988,7 +11813,7 @@
     <col min="9" max="9" width="33.33203125" customWidth="1"/>
     <col min="10" max="10" width="16.44140625" customWidth="1"/>
     <col min="11" max="11" width="38.44140625" customWidth="1"/>
-    <col min="12" max="12" width="28" style="30" customWidth="1"/>
+    <col min="12" max="12" width="28" style="24" customWidth="1"/>
     <col min="13" max="13" width="28" customWidth="1"/>
     <col min="14" max="14" width="21.33203125" customWidth="1"/>
     <col min="15" max="15" width="15.5546875" customWidth="1"/>
@@ -34418,7 +34243,7 @@
     </row>
     <row r="381" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="4">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B381" s="5" t="s">
         <v>2428</v>
@@ -34477,7 +34302,7 @@
     </row>
     <row r="382" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="4">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B382" s="5" t="s">
         <v>2434</v>
@@ -34536,7 +34361,7 @@
     </row>
     <row r="383" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="4">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B383" s="5" t="s">
         <v>2439</v>
@@ -34595,7 +34420,7 @@
     </row>
     <row r="384" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="4">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B384" s="5" t="s">
         <v>2444</v>
@@ -34654,7 +34479,7 @@
     </row>
     <row r="385" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="4">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B385" s="5" t="s">
         <v>2450</v>
@@ -34713,7 +34538,7 @@
     </row>
     <row r="386" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="4">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B386" s="5" t="s">
         <v>2455</v>
@@ -34772,7 +34597,7 @@
     </row>
     <row r="387" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="4">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B387" s="5" t="s">
         <v>2461</v>
@@ -34831,7 +34656,7 @@
     </row>
     <row r="388" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="4">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B388" s="5" t="s">
         <v>2467</v>
@@ -34890,7 +34715,7 @@
     </row>
     <row r="389" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="4">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B389" s="5" t="s">
         <v>2472</v>
@@ -34949,7 +34774,7 @@
     </row>
     <row r="390" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="4">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B390" s="5" t="s">
         <v>2478</v>
@@ -35008,7 +34833,7 @@
     </row>
     <row r="391" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="4">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B391" s="5" t="s">
         <v>2484</v>
@@ -35067,7 +34892,7 @@
     </row>
     <row r="392" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="4">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B392" s="5" t="s">
         <v>2490</v>
@@ -35126,7 +34951,7 @@
     </row>
     <row r="393" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="4">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B393" s="5" t="s">
         <v>2495</v>
@@ -35185,7 +35010,7 @@
     </row>
     <row r="394" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="4">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B394" s="5" t="s">
         <v>2501</v>
@@ -35244,7 +35069,7 @@
     </row>
     <row r="395" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="4">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B395" s="5" t="s">
         <v>2507</v>
@@ -35303,7 +35128,7 @@
     </row>
     <row r="396" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="4">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B396" s="5" t="s">
         <v>2512</v>
@@ -35362,7 +35187,7 @@
     </row>
     <row r="397" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="4">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B397" s="5" t="s">
         <v>2518</v>
@@ -35421,7 +35246,7 @@
     </row>
     <row r="398" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="4">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B398" s="5" t="s">
         <v>2526</v>
@@ -35480,7 +35305,7 @@
     </row>
     <row r="399" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="4">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B399" s="5" t="s">
         <v>2531</v>
@@ -35539,7 +35364,7 @@
     </row>
     <row r="400" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="4">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B400" s="5" t="s">
         <v>2536</v>
@@ -35598,7 +35423,7 @@
     </row>
     <row r="401" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="4">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B401" s="5" t="s">
         <v>2542</v>
@@ -35657,7 +35482,7 @@
     </row>
     <row r="402" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="4">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B402" s="5" t="s">
         <v>2549</v>
@@ -35716,7 +35541,7 @@
     </row>
     <row r="403" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="4">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B403" s="5" t="s">
         <v>2555</v>
@@ -35775,7 +35600,7 @@
     </row>
     <row r="404" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="4">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B404" s="5" t="s">
         <v>2561</v>
@@ -35834,7 +35659,7 @@
     </row>
     <row r="405" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="4">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B405" s="5" t="s">
         <v>2567</v>
@@ -35893,7 +35718,7 @@
     </row>
     <row r="406" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" s="4">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B406" s="5" t="s">
         <v>2572</v>
@@ -35952,7 +35777,7 @@
     </row>
     <row r="407" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="4">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B407" s="5" t="s">
         <v>2577</v>
@@ -36011,7 +35836,7 @@
     </row>
     <row r="408" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A408" s="4">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B408" s="5" t="s">
         <v>2583</v>
@@ -36070,7 +35895,7 @@
     </row>
     <row r="409" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409" s="4">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B409" s="5" t="s">
         <v>2589</v>
@@ -36129,7 +35954,7 @@
     </row>
     <row r="410" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="4">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B410" s="5" t="s">
         <v>2595</v>
@@ -36188,7 +36013,7 @@
     </row>
     <row r="411" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="4">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B411" s="5" t="s">
         <v>2601</v>
@@ -36247,7 +36072,7 @@
     </row>
     <row r="412" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="4">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B412" s="5" t="s">
         <v>2608</v>
@@ -36306,7 +36131,7 @@
     </row>
     <row r="413" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A413" s="4">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B413" s="5" t="s">
         <v>2614</v>
@@ -36365,7 +36190,7 @@
     </row>
     <row r="414" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A414" s="4">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B414" s="5" t="s">
         <v>2620</v>
@@ -36424,7 +36249,7 @@
     </row>
     <row r="415" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415" s="4">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B415" s="5" t="s">
         <v>2625</v>
@@ -36483,7 +36308,7 @@
     </row>
     <row r="416" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A416" s="4">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B416" s="5" t="s">
         <v>2631</v>
@@ -36542,7 +36367,7 @@
     </row>
     <row r="417" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" s="4">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B417" s="5" t="s">
         <v>2636</v>
@@ -36601,7 +36426,7 @@
     </row>
     <row r="418" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" s="4">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B418" s="5" t="s">
         <v>2642</v>
@@ -36660,7 +36485,7 @@
     </row>
     <row r="419" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A419" s="4">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B419" s="5" t="s">
         <v>2647</v>
@@ -36719,7 +36544,7 @@
     </row>
     <row r="420" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A420" s="4">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B420" s="5" t="s">
         <v>2652</v>
@@ -36778,7 +36603,7 @@
     </row>
     <row r="421" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421" s="4">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B421" s="5" t="s">
         <v>2657</v>
@@ -36837,7 +36662,7 @@
     </row>
     <row r="422" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" s="4">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B422" s="5" t="s">
         <v>2663</v>
@@ -36896,7 +36721,7 @@
     </row>
     <row r="423" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A423" s="4">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B423" s="5" t="s">
         <v>2669</v>
@@ -36955,7 +36780,7 @@
     </row>
     <row r="424" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A424" s="4">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B424" s="5" t="s">
         <v>2674</v>
@@ -37014,7 +36839,7 @@
     </row>
     <row r="425" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A425" s="4">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B425" s="5" t="s">
         <v>2679</v>
@@ -37073,7 +36898,7 @@
     </row>
     <row r="426" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A426" s="4">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B426" s="5" t="s">
         <v>2686</v>
@@ -37132,7 +36957,7 @@
     </row>
     <row r="427" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A427" s="4">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B427" s="5" t="s">
         <v>2692</v>
@@ -37191,7 +37016,7 @@
     </row>
     <row r="428" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A428" s="4">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B428" s="5" t="s">
         <v>2697</v>
@@ -37250,7 +37075,7 @@
     </row>
     <row r="429" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" s="4">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B429" s="5" t="s">
         <v>2702</v>
@@ -37309,7 +37134,7 @@
     </row>
     <row r="430" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="4">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B430" s="5" t="s">
         <v>2710</v>
@@ -37368,7 +37193,7 @@
     </row>
     <row r="431" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431" s="4">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B431" s="5" t="s">
         <v>2716</v>
@@ -37427,7 +37252,7 @@
     </row>
     <row r="432" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432" s="4">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B432" s="5" t="s">
         <v>2722</v>
@@ -37486,7 +37311,7 @@
     </row>
     <row r="433" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433" s="4">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B433" s="5" t="s">
         <v>2728</v>
@@ -37545,7 +37370,7 @@
     </row>
     <row r="434" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A434" s="4">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B434" s="5" t="s">
         <v>2733</v>
@@ -37604,7 +37429,7 @@
     </row>
     <row r="435" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A435" s="4">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B435" s="5" t="s">
         <v>2740</v>
@@ -37663,7 +37488,7 @@
     </row>
     <row r="436" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A436" s="4">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B436" s="5" t="s">
         <v>2746</v>
@@ -37722,7 +37547,7 @@
     </row>
     <row r="437" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A437" s="4">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B437" s="5" t="s">
         <v>2752</v>
@@ -37781,7 +37606,7 @@
     </row>
     <row r="438" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438" s="4">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B438" s="5" t="s">
         <v>2758</v>
@@ -37840,7 +37665,7 @@
     </row>
     <row r="439" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A439" s="4">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B439" s="5" t="s">
         <v>2764</v>
@@ -37899,7 +37724,7 @@
     </row>
     <row r="440" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" s="4">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B440" s="5" t="s">
         <v>2770</v>
@@ -37958,7 +37783,7 @@
     </row>
     <row r="441" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A441" s="4">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B441" s="5" t="s">
         <v>2775</v>
@@ -38017,7 +37842,7 @@
     </row>
     <row r="442" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A442" s="4">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B442" s="5" t="s">
         <v>2780</v>
@@ -38076,7 +37901,7 @@
     </row>
     <row r="443" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A443" s="4">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B443" s="5" t="s">
         <v>2785</v>
@@ -38135,7 +37960,7 @@
     </row>
     <row r="444" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A444" s="4">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B444" s="5" t="s">
         <v>2791</v>
@@ -38194,7 +38019,7 @@
     </row>
     <row r="445" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A445" s="4">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B445" s="5" t="s">
         <v>2797</v>
@@ -38253,7 +38078,7 @@
     </row>
     <row r="446" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A446" s="4">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B446" s="5" t="s">
         <v>2803</v>
@@ -38312,7 +38137,7 @@
     </row>
     <row r="447" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" s="4">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B447" s="5" t="s">
         <v>2809</v>
@@ -38371,7 +38196,7 @@
     </row>
     <row r="448" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A448" s="4">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B448" s="5" t="s">
         <v>2815</v>
@@ -38430,7 +38255,7 @@
     </row>
     <row r="449" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A449" s="4">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B449" s="5" t="s">
         <v>2819</v>
@@ -38489,7 +38314,7 @@
     </row>
     <row r="450" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A450" s="4">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B450" s="5" t="s">
         <v>2824</v>
@@ -38548,7 +38373,7 @@
     </row>
     <row r="451" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A451" s="4">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B451" s="5" t="s">
         <v>2830</v>
@@ -38607,7 +38432,7 @@
     </row>
     <row r="452" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A452" s="4">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B452" s="5" t="s">
         <v>2835</v>
@@ -38666,7 +38491,7 @@
     </row>
     <row r="453" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A453" s="4">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B453" s="5" t="s">
         <v>2841</v>
@@ -38725,7 +38550,7 @@
     </row>
     <row r="454" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A454" s="4">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B454" s="5" t="s">
         <v>2846</v>
@@ -38784,7 +38609,7 @@
     </row>
     <row r="455" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A455" s="4">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B455" s="5" t="s">
         <v>2851</v>
@@ -38843,7 +38668,7 @@
     </row>
     <row r="456" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A456" s="4">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B456" s="5" t="s">
         <v>2856</v>
@@ -38902,7 +38727,7 @@
     </row>
     <row r="457" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457" s="4">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B457" s="5" t="s">
         <v>2861</v>
@@ -38961,7 +38786,7 @@
     </row>
     <row r="458" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458" s="4">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B458" s="5" t="s">
         <v>2867</v>
@@ -39020,7 +38845,7 @@
     </row>
     <row r="459" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A459" s="4">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B459" s="5" t="s">
         <v>2873</v>
@@ -39079,7 +38904,7 @@
     </row>
     <row r="460" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A460" s="4">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B460" s="5" t="s">
         <v>2877</v>
@@ -39138,7 +38963,7 @@
     </row>
     <row r="461" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A461" s="4">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B461" s="5" t="s">
         <v>2882</v>
@@ -39197,7 +39022,7 @@
     </row>
     <row r="462" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A462" s="4">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B462" s="5" t="s">
         <v>2888</v>
@@ -39256,7 +39081,7 @@
     </row>
     <row r="463" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A463" s="4">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B463" s="5" t="s">
         <v>2893</v>
@@ -39315,7 +39140,7 @@
     </row>
     <row r="464" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A464" s="4">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B464" s="5" t="s">
         <v>2899</v>
@@ -39374,7 +39199,7 @@
     </row>
     <row r="465" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A465" s="4">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B465" s="5" t="s">
         <v>2906</v>
@@ -39433,7 +39258,7 @@
     </row>
     <row r="466" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A466" s="4">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B466" s="5" t="s">
         <v>2911</v>
@@ -39492,7 +39317,7 @@
     </row>
     <row r="467" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A467" s="4">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B467" s="5" t="s">
         <v>2916</v>
@@ -39551,7 +39376,7 @@
     </row>
     <row r="468" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A468" s="4">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B468" s="5" t="s">
         <v>2922</v>
@@ -39610,7 +39435,7 @@
     </row>
     <row r="469" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A469" s="4">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B469" s="5" t="s">
         <v>2928</v>
@@ -39669,7 +39494,7 @@
     </row>
     <row r="470" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A470" s="4">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B470" s="5" t="s">
         <v>2933</v>
@@ -39728,7 +39553,7 @@
     </row>
     <row r="471" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A471" s="4">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B471" s="5" t="s">
         <v>2938</v>
@@ -39787,7 +39612,7 @@
     </row>
     <row r="472" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A472" s="4">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B472" s="5" t="s">
         <v>2944</v>
@@ -39846,7 +39671,7 @@
     </row>
     <row r="473" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A473" s="4">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B473" s="5" t="s">
         <v>2950</v>
@@ -39905,7 +39730,7 @@
     </row>
     <row r="474" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A474" s="4">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B474" s="5" t="s">
         <v>2955</v>
@@ -39964,7 +39789,7 @@
     </row>
     <row r="475" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A475" s="4">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B475" s="5" t="s">
         <v>2961</v>
@@ -40023,7 +39848,7 @@
     </row>
     <row r="476" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A476" s="4">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B476" s="5" t="s">
         <v>2966</v>
@@ -40082,7 +39907,7 @@
     </row>
     <row r="477" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A477" s="4">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B477" s="5" t="s">
         <v>2972</v>
@@ -40141,7 +39966,7 @@
     </row>
     <row r="478" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A478" s="4">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B478" s="5" t="s">
         <v>2978</v>
@@ -40200,7 +40025,7 @@
     </row>
     <row r="479" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A479" s="4">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B479" s="5" t="s">
         <v>2984</v>
@@ -40259,7 +40084,7 @@
     </row>
     <row r="480" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A480" s="4">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B480" s="5" t="s">
         <v>2990</v>
@@ -40318,7 +40143,7 @@
     </row>
     <row r="481" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A481" s="4">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B481" s="5" t="s">
         <v>2996</v>
@@ -40377,7 +40202,7 @@
     </row>
     <row r="482" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A482" s="4">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B482" s="5" t="s">
         <v>3001</v>
@@ -40436,7 +40261,7 @@
     </row>
     <row r="483" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A483" s="4">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B483" s="5" t="s">
         <v>3007</v>
@@ -40495,7 +40320,7 @@
     </row>
     <row r="484" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A484" s="4">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B484" s="5" t="s">
         <v>3013</v>
@@ -40554,7 +40379,7 @@
     </row>
     <row r="485" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A485" s="4">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B485" s="5" t="s">
         <v>3019</v>
@@ -40613,7 +40438,7 @@
     </row>
     <row r="486" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A486" s="4">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B486" s="5" t="s">
         <v>3025</v>
@@ -40672,7 +40497,7 @@
     </row>
     <row r="487" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A487" s="4">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B487" s="5" t="s">
         <v>3031</v>
@@ -40731,7 +40556,7 @@
     </row>
     <row r="488" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A488" s="4">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B488" s="5" t="s">
         <v>3037</v>
@@ -40790,7 +40615,7 @@
     </row>
     <row r="489" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A489" s="4">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B489" s="5" t="s">
         <v>3042</v>
@@ -40849,7 +40674,7 @@
     </row>
     <row r="490" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A490" s="4">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B490" s="5" t="s">
         <v>3048</v>
@@ -40908,7 +40733,7 @@
     </row>
     <row r="491" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A491" s="4">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B491" s="5" t="s">
         <v>3053</v>
@@ -40967,7 +40792,7 @@
     </row>
     <row r="492" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A492" s="4">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B492" s="5" t="s">
         <v>3058</v>
@@ -41026,7 +40851,7 @@
     </row>
     <row r="493" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A493" s="4">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B493" s="5" t="s">
         <v>3063</v>
@@ -41085,7 +40910,7 @@
     </row>
     <row r="494" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A494" s="4">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B494" s="5" t="s">
         <v>3069</v>
@@ -41144,7 +40969,7 @@
     </row>
     <row r="495" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A495" s="4">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B495" s="5" t="s">
         <v>3075</v>
@@ -41203,7 +41028,7 @@
     </row>
     <row r="496" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A496" s="4">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B496" s="5" t="s">
         <v>3081</v>
@@ -41262,7 +41087,7 @@
     </row>
     <row r="497" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A497" s="4">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B497" s="5" t="s">
         <v>3087</v>
@@ -41321,7 +41146,7 @@
     </row>
     <row r="498" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A498" s="4">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B498" s="5" t="s">
         <v>3094</v>
@@ -41380,7 +41205,7 @@
     </row>
     <row r="499" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A499" s="4">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B499" s="5" t="s">
         <v>3099</v>
@@ -41439,7 +41264,7 @@
     </row>
     <row r="500" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A500" s="4">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B500" s="5" t="s">
         <v>3105</v>
@@ -41498,7 +41323,7 @@
     </row>
     <row r="501" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A501" s="4">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B501" s="5" t="s">
         <v>3111</v>
@@ -41557,7 +41382,7 @@
     </row>
     <row r="502" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A502" s="4">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B502" s="5" t="s">
         <v>3116</v>
@@ -41616,7 +41441,7 @@
     </row>
     <row r="503" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A503" s="4">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B503" s="5" t="s">
         <v>3121</v>
@@ -41675,7 +41500,7 @@
     </row>
     <row r="504" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A504" s="4">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B504" s="5" t="s">
         <v>3126</v>
@@ -41734,7 +41559,7 @@
     </row>
     <row r="505" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A505" s="4">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B505" s="5" t="s">
         <v>3132</v>
@@ -41793,7 +41618,7 @@
     </row>
     <row r="506" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A506" s="4">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B506" s="5" t="s">
         <v>3137</v>
@@ -41852,7 +41677,7 @@
     </row>
     <row r="507" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A507" s="4">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B507" s="5" t="s">
         <v>3143</v>
@@ -41911,7 +41736,7 @@
     </row>
     <row r="508" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A508" s="4">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B508" s="5" t="s">
         <v>3148</v>
@@ -41970,7 +41795,7 @@
     </row>
     <row r="509" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A509" s="4">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B509" s="5" t="s">
         <v>3154</v>
@@ -42029,7 +41854,7 @@
     </row>
     <row r="510" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A510" s="4">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B510" s="5" t="s">
         <v>3159</v>
@@ -42088,7 +41913,7 @@
     </row>
     <row r="511" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A511" s="4">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B511" s="5" t="s">
         <v>3165</v>
@@ -42147,7 +41972,7 @@
     </row>
     <row r="512" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A512" s="4">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B512" s="5" t="s">
         <v>3171</v>
@@ -42206,7 +42031,7 @@
     </row>
     <row r="513" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A513" s="4">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B513" s="5" t="s">
         <v>3177</v>
@@ -42265,7 +42090,7 @@
     </row>
     <row r="514" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A514" s="4">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B514" s="5" t="s">
         <v>3182</v>
@@ -42324,7 +42149,7 @@
     </row>
     <row r="515" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A515" s="4">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B515" s="5" t="s">
         <v>3188</v>
@@ -42383,7 +42208,7 @@
     </row>
     <row r="516" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A516" s="4">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B516" s="5" t="s">
         <v>3194</v>
@@ -42442,7 +42267,7 @@
     </row>
     <row r="517" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A517" s="4">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B517" s="5" t="s">
         <v>3200</v>
@@ -42501,7 +42326,7 @@
     </row>
     <row r="518" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A518" s="4">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B518" s="5" t="s">
         <v>3205</v>
@@ -42560,7 +42385,7 @@
     </row>
     <row r="519" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A519" s="4">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B519" s="20" t="s">
         <v>3210</v>
@@ -42619,7 +42444,7 @@
     </row>
     <row r="520" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A520" s="4">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B520" s="20" t="s">
         <v>3216</v>
@@ -42678,7 +42503,7 @@
     </row>
     <row r="521" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A521" s="4">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B521" s="5" t="s">
         <v>3221</v>
@@ -42737,7 +42562,7 @@
     </row>
     <row r="522" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A522" s="4">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B522" s="5" t="s">
         <v>3227</v>
@@ -42796,7 +42621,7 @@
     </row>
     <row r="523" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A523" s="4">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B523" s="5" t="s">
         <v>3234</v>
@@ -42855,7 +42680,7 @@
     </row>
     <row r="524" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A524" s="4">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B524" s="5" t="s">
         <v>3241</v>
@@ -42914,7 +42739,7 @@
     </row>
     <row r="525" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A525" s="4">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B525" s="5" t="s">
         <v>3247</v>
@@ -42973,7 +42798,7 @@
     </row>
     <row r="526" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A526" s="4">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B526" s="5" t="s">
         <v>3253</v>
@@ -43032,7 +42857,7 @@
     </row>
     <row r="527" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A527" s="4">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B527" s="5" t="s">
         <v>3261</v>
@@ -43091,7 +42916,7 @@
     </row>
     <row r="528" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A528" s="4">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B528" s="5" t="s">
         <v>3267</v>
@@ -43150,7 +42975,7 @@
     </row>
     <row r="529" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A529" s="4">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B529" s="5" t="s">
         <v>3272</v>
@@ -43209,7 +43034,7 @@
     </row>
     <row r="530" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A530" s="4">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B530" s="5" t="s">
         <v>3278</v>
@@ -43268,7 +43093,7 @@
     </row>
     <row r="531" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A531" s="4">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B531" s="5" t="s">
         <v>3283</v>
@@ -43327,7 +43152,7 @@
     </row>
     <row r="532" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A532" s="4">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B532" s="5" t="s">
         <v>3289</v>
@@ -43386,7 +43211,7 @@
     </row>
     <row r="533" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A533" s="4">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B533" s="5" t="s">
         <v>3295</v>
@@ -43445,7 +43270,7 @@
     </row>
     <row r="534" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A534" s="4">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B534" s="5" t="s">
         <v>3302</v>
@@ -43504,7 +43329,7 @@
     </row>
     <row r="535" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A535" s="4">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B535" s="5" t="s">
         <v>3309</v>
@@ -43563,7 +43388,7 @@
     </row>
     <row r="536" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A536" s="4">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B536" s="5" t="s">
         <v>3316</v>
@@ -43622,7 +43447,7 @@
     </row>
     <row r="537" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A537" s="4">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B537" s="5" t="s">
         <v>3322</v>
@@ -43681,7 +43506,7 @@
     </row>
     <row r="538" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A538" s="4">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B538" s="5" t="s">
         <v>3327</v>
@@ -43740,7 +43565,7 @@
     </row>
     <row r="539" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A539" s="4">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B539" s="5" t="s">
         <v>3332</v>
@@ -43799,7 +43624,7 @@
     </row>
     <row r="540" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A540" s="4">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B540" s="5" t="s">
         <v>3336</v>
@@ -43858,7 +43683,7 @@
     </row>
     <row r="541" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A541" s="4">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B541" s="5" t="s">
         <v>3341</v>
@@ -43917,7 +43742,7 @@
     </row>
     <row r="542" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A542" s="4">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B542" s="5" t="s">
         <v>3347</v>
@@ -43976,7 +43801,7 @@
     </row>
     <row r="543" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A543" s="4">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B543" s="5" t="s">
         <v>3352</v>
@@ -44035,7 +43860,7 @@
     </row>
     <row r="544" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A544" s="4">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B544" s="5" t="s">
         <v>3358</v>
@@ -44094,7 +43919,7 @@
     </row>
     <row r="545" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A545" s="4">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B545" s="5" t="s">
         <v>3363</v>
@@ -44153,7 +43978,7 @@
     </row>
     <row r="546" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A546" s="4">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B546" s="5" t="s">
         <v>3368</v>
@@ -44212,7 +44037,7 @@
     </row>
     <row r="547" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A547" s="4">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B547" s="5" t="s">
         <v>3374</v>
@@ -44271,7 +44096,7 @@
     </row>
     <row r="548" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A548" s="4">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B548" s="5" t="s">
         <v>3379</v>
@@ -44330,7 +44155,7 @@
     </row>
     <row r="549" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A549" s="4">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B549" s="5" t="s">
         <v>3384</v>
@@ -44389,7 +44214,7 @@
     </row>
     <row r="550" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A550" s="4">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B550" s="5" t="s">
         <v>3390</v>
@@ -44448,7 +44273,7 @@
     </row>
     <row r="551" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A551" s="4">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B551" s="5" t="s">
         <v>3396</v>
@@ -44507,7 +44332,7 @@
     </row>
     <row r="552" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A552" s="4">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B552" s="5" t="s">
         <v>3402</v>
@@ -44566,7 +44391,7 @@
     </row>
     <row r="553" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A553" s="4">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B553" s="5" t="s">
         <v>3410</v>
@@ -44625,7 +44450,7 @@
     </row>
     <row r="554" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A554" s="4">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B554" s="5" t="s">
         <v>3416</v>
@@ -44684,7 +44509,7 @@
     </row>
     <row r="555" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A555" s="4">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B555" s="5" t="s">
         <v>3421</v>
@@ -44743,7 +44568,7 @@
     </row>
     <row r="556" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A556" s="4">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B556" s="5" t="s">
         <v>3427</v>
@@ -44802,7 +44627,7 @@
     </row>
     <row r="557" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A557" s="4">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B557" s="5" t="s">
         <v>3432</v>
@@ -44861,7 +44686,7 @@
     </row>
     <row r="558" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A558" s="4">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B558" s="5" t="s">
         <v>3437</v>
@@ -44920,7 +44745,7 @@
     </row>
     <row r="559" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A559" s="4">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B559" s="20" t="s">
         <v>3443</v>
@@ -44979,7 +44804,7 @@
     </row>
     <row r="560" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A560" s="4">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B560" s="20" t="s">
         <v>3448</v>
@@ -45038,7 +44863,7 @@
     </row>
     <row r="561" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A561" s="4">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B561" s="5" t="s">
         <v>3455</v>
@@ -45097,7 +44922,7 @@
     </row>
     <row r="562" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A562" s="4">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B562" s="5" t="s">
         <v>3462</v>
@@ -45156,7 +44981,7 @@
     </row>
     <row r="563" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A563" s="4">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B563" s="5" t="s">
         <v>3467</v>
@@ -45215,7 +45040,7 @@
     </row>
     <row r="564" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A564" s="4">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B564" s="5" t="s">
         <v>3472</v>
@@ -45274,7 +45099,7 @@
     </row>
     <row r="565" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A565" s="4">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B565" s="5" t="s">
         <v>3477</v>
@@ -45333,7 +45158,7 @@
     </row>
     <row r="566" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A566" s="4">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B566" s="5" t="s">
         <v>3482</v>
@@ -45392,7 +45217,7 @@
     </row>
     <row r="567" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A567" s="4">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B567" s="5" t="s">
         <v>3486</v>
@@ -45451,7 +45276,7 @@
     </row>
     <row r="568" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A568" s="4">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B568" s="5" t="s">
         <v>3491</v>
@@ -45510,7 +45335,7 @@
     </row>
     <row r="569" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A569" s="4">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B569" s="5" t="s">
         <v>3496</v>
@@ -45569,7 +45394,7 @@
     </row>
     <row r="570" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A570" s="4">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B570" s="5" t="s">
         <v>3501</v>
@@ -45628,7 +45453,7 @@
     </row>
     <row r="571" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A571" s="4">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B571" s="5" t="s">
         <v>3506</v>
@@ -45687,7 +45512,7 @@
     </row>
     <row r="572" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A572" s="4">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B572" s="5" t="s">
         <v>3511</v>
@@ -45746,7 +45571,7 @@
     </row>
     <row r="573" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A573" s="4">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B573" s="5" t="s">
         <v>3517</v>
@@ -45805,7 +45630,7 @@
     </row>
     <row r="574" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A574" s="4">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B574" s="5" t="s">
         <v>3524</v>
@@ -45864,7 +45689,7 @@
     </row>
     <row r="575" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A575" s="4">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B575" s="5" t="s">
         <v>3531</v>
@@ -45923,7 +45748,7 @@
     </row>
     <row r="576" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A576" s="4">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B576" s="5" t="s">
         <v>3539</v>
@@ -45982,7 +45807,7 @@
     </row>
     <row r="577" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A577" s="4">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B577" s="5" t="s">
         <v>3544</v>
@@ -46041,7 +45866,7 @@
     </row>
     <row r="578" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A578" s="4">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B578" s="5" t="s">
         <v>3550</v>
@@ -46100,7 +45925,7 @@
     </row>
     <row r="579" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A579" s="4">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B579" s="5" t="s">
         <v>3556</v>
@@ -46159,7 +45984,7 @@
     </row>
     <row r="580" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A580" s="4">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B580" s="5" t="s">
         <v>3561</v>
@@ -46218,7 +46043,7 @@
     </row>
     <row r="581" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A581" s="4">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B581" s="5" t="s">
         <v>3566</v>
@@ -46277,7 +46102,7 @@
     </row>
     <row r="582" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A582" s="4">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B582" s="5" t="s">
         <v>3572</v>
@@ -46336,7 +46161,7 @@
     </row>
     <row r="583" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A583" s="4">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B583" s="5" t="s">
         <v>3578</v>
@@ -46395,7 +46220,7 @@
     </row>
     <row r="584" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A584" s="4">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B584" s="5" t="s">
         <v>3584</v>
@@ -46454,7 +46279,7 @@
     </row>
     <row r="585" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A585" s="4">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B585" s="5" t="s">
         <v>3589</v>
@@ -46513,7 +46338,7 @@
     </row>
     <row r="586" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A586" s="4">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B586" s="5" t="s">
         <v>3594</v>
@@ -46572,7 +46397,7 @@
     </row>
     <row r="587" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A587" s="4">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B587" s="5" t="s">
         <v>3601</v>
@@ -46631,7 +46456,7 @@
     </row>
     <row r="588" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A588" s="4">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B588" s="5" t="s">
         <v>3608</v>
@@ -46690,7 +46515,7 @@
     </row>
     <row r="589" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A589" s="4">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B589" s="5" t="s">
         <v>3613</v>
@@ -46749,7 +46574,7 @@
     </row>
     <row r="590" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A590" s="4">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B590" s="5" t="s">
         <v>3619</v>
@@ -46808,7 +46633,7 @@
     </row>
     <row r="591" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A591" s="4">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B591" s="5" t="s">
         <v>3624</v>
@@ -46867,7 +46692,7 @@
     </row>
     <row r="592" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A592" s="4">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B592" s="5" t="s">
         <v>3629</v>
@@ -46926,7 +46751,7 @@
     </row>
     <row r="593" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A593" s="4">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B593" s="5" t="s">
         <v>3635</v>
@@ -46985,7 +46810,7 @@
     </row>
     <row r="594" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A594" s="4">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B594" s="5" t="s">
         <v>3640</v>
@@ -47044,7 +46869,7 @@
     </row>
     <row r="595" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A595" s="4">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B595" s="5" t="s">
         <v>3646</v>
@@ -47103,7 +46928,7 @@
     </row>
     <row r="596" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A596" s="4">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B596" s="5" t="s">
         <v>3651</v>
@@ -47162,7 +46987,7 @@
     </row>
     <row r="597" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A597" s="4">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B597" s="5" t="s">
         <v>3657</v>
@@ -47221,7 +47046,7 @@
     </row>
     <row r="598" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A598" s="4">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B598" s="5" t="s">
         <v>3663</v>
@@ -47280,7 +47105,7 @@
     </row>
     <row r="599" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A599" s="4">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B599" s="5" t="s">
         <v>3668</v>
@@ -47339,7 +47164,7 @@
     </row>
     <row r="600" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A600" s="4">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B600" s="5" t="s">
         <v>3675</v>
@@ -47398,7 +47223,7 @@
     </row>
     <row r="601" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A601" s="4">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B601" s="5" t="s">
         <v>3680</v>
@@ -47457,7 +47282,7 @@
     </row>
     <row r="602" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A602" s="4">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B602" s="5" t="s">
         <v>3686</v>
@@ -47516,7 +47341,7 @@
     </row>
     <row r="603" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A603" s="4">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B603" s="5" t="s">
         <v>3691</v>
@@ -47575,7 +47400,7 @@
     </row>
     <row r="604" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A604" s="4">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B604" s="5" t="s">
         <v>3697</v>
@@ -47634,7 +47459,7 @@
     </row>
     <row r="605" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A605" s="4">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B605" s="5" t="s">
         <v>3702</v>
@@ -47693,7 +47518,7 @@
     </row>
     <row r="606" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A606" s="4">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B606" s="5" t="s">
         <v>3708</v>
@@ -47752,7 +47577,7 @@
     </row>
     <row r="607" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A607" s="4">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B607" s="5" t="s">
         <v>3714</v>
@@ -47811,7 +47636,7 @@
     </row>
     <row r="608" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A608" s="4">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B608" s="5" t="s">
         <v>3718</v>
@@ -47870,7 +47695,7 @@
     </row>
     <row r="609" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A609" s="4">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B609" s="5" t="s">
         <v>3724</v>
@@ -47929,7 +47754,7 @@
     </row>
     <row r="610" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A610" s="4">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B610" s="5" t="s">
         <v>3730</v>
@@ -47988,7 +47813,7 @@
     </row>
     <row r="611" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A611" s="4">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B611" s="5" t="s">
         <v>3736</v>
@@ -48047,7 +47872,7 @@
     </row>
     <row r="612" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A612" s="4">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B612" s="5" t="s">
         <v>3743</v>
@@ -48106,7 +47931,7 @@
     </row>
     <row r="613" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A613" s="4">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B613" s="5" t="s">
         <v>3748</v>
@@ -48165,7 +47990,7 @@
     </row>
     <row r="614" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A614" s="4">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B614" s="5" t="s">
         <v>3753</v>
@@ -48224,7 +48049,7 @@
     </row>
     <row r="615" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A615" s="4">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B615" s="5" t="s">
         <v>3758</v>
@@ -48283,7 +48108,7 @@
     </row>
     <row r="616" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A616" s="4">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B616" s="5" t="s">
         <v>3763</v>
@@ -48342,7 +48167,7 @@
     </row>
     <row r="617" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A617" s="4">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B617" s="5" t="s">
         <v>3769</v>
@@ -48401,7 +48226,7 @@
     </row>
     <row r="618" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A618" s="4">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B618" s="5" t="s">
         <v>3774</v>
@@ -48460,7 +48285,7 @@
     </row>
     <row r="619" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A619" s="4">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B619" s="5" t="s">
         <v>3780</v>
@@ -48547,17 +48372,17 @@
     <row r="621" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A621" s="9"/>
       <c r="B621" s="20"/>
-      <c r="C621" s="27"/>
-      <c r="D621" s="28"/>
-      <c r="E621" s="28"/>
-      <c r="F621" s="28"/>
-      <c r="G621" s="28"/>
-      <c r="H621" s="28"/>
-      <c r="I621" s="28"/>
-      <c r="J621" s="28"/>
-      <c r="K621" s="28"/>
-      <c r="L621" s="29"/>
-      <c r="M621" s="28"/>
+      <c r="C621" s="25"/>
+      <c r="D621" s="26"/>
+      <c r="E621" s="26"/>
+      <c r="F621" s="26"/>
+      <c r="G621" s="26"/>
+      <c r="H621" s="26"/>
+      <c r="I621" s="26"/>
+      <c r="J621" s="26"/>
+      <c r="K621" s="26"/>
+      <c r="L621" s="27"/>
+      <c r="M621" s="26"/>
       <c r="N621" s="10"/>
       <c r="O621" s="9"/>
       <c r="P621" s="9"/>
@@ -58707,410 +58532,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D96887ED-D757-40F9-8873-DE279DF1E57F}">
-  <dimension ref="A1:B57"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.5546875" style="25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
-        <v>3837</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>3838</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3787</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3788</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3789</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>203</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>3790</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>3791</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>3792</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>3793</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>3794</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>395</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>3795</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>3796</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>3797</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>1453</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>3798</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>1585</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>3799</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>1757</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>3800</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>1829</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>3801</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>3802</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>2069</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>3803</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>2603</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>3804</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>3805</v>
-      </c>
-      <c r="B23" s="26"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>3806</v>
-      </c>
-      <c r="B24"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>3807</v>
-      </c>
-      <c r="B25"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>3808</v>
-      </c>
-      <c r="B26"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>3809</v>
-      </c>
-      <c r="B27"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>3810</v>
-      </c>
-      <c r="B28"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>3811</v>
-      </c>
-      <c r="B29"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>3812</v>
-      </c>
-      <c r="B30"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>145</v>
-      </c>
-      <c r="B31"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>3813</v>
-      </c>
-      <c r="B32"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>3814</v>
-      </c>
-      <c r="B33"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>3815</v>
-      </c>
-      <c r="B34"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>3816</v>
-      </c>
-      <c r="B35"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>3817</v>
-      </c>
-      <c r="B36"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>1585</v>
-      </c>
-      <c r="B37"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>3818</v>
-      </c>
-      <c r="B38"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>1453</v>
-      </c>
-      <c r="B39"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>3819</v>
-      </c>
-      <c r="B40"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>3820</v>
-      </c>
-      <c r="B41"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>3821</v>
-      </c>
-      <c r="B42"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>3822</v>
-      </c>
-      <c r="B43"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>3823</v>
-      </c>
-      <c r="B44"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>3824</v>
-      </c>
-      <c r="B45"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>3825</v>
-      </c>
-      <c r="B46"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>3826</v>
-      </c>
-      <c r="B47"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>3827</v>
-      </c>
-      <c r="B48"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>3828</v>
-      </c>
-      <c r="B49"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>3829</v>
-      </c>
-      <c r="B50"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>3830</v>
-      </c>
-      <c r="B51"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>3831</v>
-      </c>
-      <c r="B52"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>3832</v>
-      </c>
-      <c r="B53"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>3833</v>
-      </c>
-      <c r="B54"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>3834</v>
-      </c>
-      <c r="B55"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>3835</v>
-      </c>
-      <c r="B56"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>3836</v>
-      </c>
-      <c r="B57"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:B57" xr:uid="{D96887ED-D757-40F9-8873-DE279DF1E57F}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>